--- a/FALEC-w1-core-web/WebContent/reportes/FALECPV-RetencionesDet.xlsx
+++ b/FALEC-w1-core-web/WebContent/reportes/FALECPV-RetencionesDet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/projects/gitrepositorio/FacturaElectronica-App/FALEC-w1-core-web/WebContent/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C9DFD9-9E8F-144E-800E-2958E730A20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC205DC3-0CCB-FD46-9CA8-2CC02BF4FE0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="13900" windowWidth="38540" windowHeight="22340" xr2:uid="{306FDEFB-6B54-2B40-874B-FA2C57B165FD}"/>
+    <workbookView xWindow="20280" yWindow="11500" windowWidth="38540" windowHeight="22340" xr2:uid="{306FDEFB-6B54-2B40-874B-FA2C57B165FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ESTABLECIMIENTO :</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>PERIODO</t>
+  </si>
+  <si>
+    <t>DESCRIPCON</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,25 +228,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A527F97D-E6F1-DE46-8C92-B6BC6FE0A79B}">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,83 +582,85 @@
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -663,28 +671,29 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -718,27 +727,30 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A2:P2"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K9:P9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
